--- a/CRD_prob_3.xlsx
+++ b/CRD_prob_3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f16e1f40e0bf47b/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{C11AFCFB-A927-42B8-898D-9E8FC24F5F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D64B551B-64B8-400B-892D-F2BF8A06776C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{47058630-D89B-4444-A1D4-1BA1E6054F1D}"/>
   </bookViews>
